--- a/results/cifar100/naive_joint-training_cifar100.xlsx
+++ b/results/cifar100/naive_joint-training_cifar100.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.927636905246311</v>
+        <v>3.92754515753852</v>
       </c>
       <c r="D3">
-        <v>3.780411520004272</v>
+        <v>3.702338562011719</v>
       </c>
       <c r="E3">
-        <v>11.93</v>
+        <v>12.96</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.018843035364151</v>
+        <v>0.01843480627536774</v>
       </c>
       <c r="J3">
-        <v>11.93</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.280181884765625</v>
+        <v>3.252291422949897</v>
       </c>
       <c r="D4">
-        <v>3.159919281005859</v>
+        <v>3.235375356674195</v>
       </c>
       <c r="E4">
-        <v>21.57</v>
+        <v>20.99</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0.0155997763633728</v>
+        <v>0.01594100685119629</v>
       </c>
       <c r="J4">
-        <v>21.57</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.881418579949273</v>
+        <v>2.85684884707133</v>
       </c>
       <c r="D5">
-        <v>2.984527225494385</v>
+        <v>3.016117582321167</v>
       </c>
       <c r="E5">
-        <v>24.85</v>
+        <v>24.6</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.01477575087547302</v>
+        <v>0.01490614545345306</v>
       </c>
       <c r="J5">
-        <v>24.85</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -550,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.591967958874172</v>
+        <v>2.589430073632134</v>
       </c>
       <c r="D6">
-        <v>2.993755102157593</v>
+        <v>2.845204982757569</v>
       </c>
       <c r="E6">
-        <v>26.21</v>
+        <v>28.61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -565,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0.01493869652748108</v>
+        <v>0.0141064177274704</v>
       </c>
       <c r="J6">
-        <v>26.21</v>
+        <v>28.61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.371141273710463</v>
+        <v>2.378719939125909</v>
       </c>
       <c r="D7">
-        <v>2.616817598342895</v>
+        <v>2.73941686630249</v>
       </c>
       <c r="E7">
-        <v>32.67</v>
+        <v>30.67</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0.0128755960226059</v>
+        <v>0.01346205472946167</v>
       </c>
       <c r="J7">
-        <v>32.67</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -608,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.188810122807821</v>
+        <v>2.209890869988335</v>
       </c>
       <c r="D8">
-        <v>2.502565746307373</v>
+        <v>2.537117967605591</v>
       </c>
       <c r="E8">
-        <v>34.97</v>
+        <v>35.18</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>0.01233094415664673</v>
+        <v>0.01249687216281891</v>
       </c>
       <c r="J8">
-        <v>34.97</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -637,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.036417255401611</v>
+        <v>2.058710299597846</v>
       </c>
       <c r="D9">
-        <v>2.410774326324463</v>
+        <v>2.488146657943726</v>
       </c>
       <c r="E9">
-        <v>37.63</v>
+        <v>36.42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>0.0117619621515274</v>
+        <v>0.01214652655124664</v>
       </c>
       <c r="J9">
-        <v>37.63</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.915420381757948</v>
+        <v>1.937334992090861</v>
       </c>
       <c r="D10">
-        <v>2.275290608406067</v>
+        <v>2.425968675613403</v>
       </c>
       <c r="E10">
-        <v>40.69</v>
+        <v>37.19</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>0.01102600865364075</v>
+        <v>0.01208229916095734</v>
       </c>
       <c r="J10">
-        <v>40.69</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -695,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.805917912589179</v>
+        <v>1.832051538891262</v>
       </c>
       <c r="D11">
-        <v>2.387948017120361</v>
+        <v>2.329503593444824</v>
       </c>
       <c r="E11">
-        <v>38.69</v>
+        <v>39.46</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -710,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.01177626779079437</v>
+        <v>0.01157660810947418</v>
       </c>
       <c r="J11">
-        <v>38.69</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -724,13 +724,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.710351500511169</v>
+        <v>1.733418740696377</v>
       </c>
       <c r="D12">
-        <v>2.119335098266601</v>
+        <v>2.328503551483154</v>
       </c>
       <c r="E12">
-        <v>43.69</v>
+        <v>40.62</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>0.01042477812767029</v>
+        <v>0.01134442210197449</v>
       </c>
       <c r="J12">
-        <v>43.69</v>
+        <v>40.62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -753,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.61644460413191</v>
+        <v>1.644253950648838</v>
       </c>
       <c r="D13">
-        <v>2.114803032875061</v>
+        <v>2.184578828811646</v>
       </c>
       <c r="E13">
-        <v>45.06</v>
+        <v>43.32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>0.01030526192188263</v>
+        <v>0.01079042528867722</v>
       </c>
       <c r="J13">
-        <v>45.06</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -782,13 +782,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.536793815824721</v>
+        <v>1.560672676828172</v>
       </c>
       <c r="D14">
-        <v>2.25367826461792</v>
+        <v>2.144327540397644</v>
       </c>
       <c r="E14">
-        <v>42.16</v>
+        <v>44.23</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>0.01099293885231018</v>
+        <v>0.0106016101360321</v>
       </c>
       <c r="J14">
-        <v>42.16</v>
+        <v>44.23</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -811,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.462928158971998</v>
+        <v>1.482022168371413</v>
       </c>
       <c r="D15">
-        <v>2.382972421646118</v>
+        <v>2.414285068511963</v>
       </c>
       <c r="E15">
-        <v>40.95</v>
+        <v>40.36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -826,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>0.01174901833534241</v>
+        <v>0.01179321850538254</v>
       </c>
       <c r="J15">
-        <v>40.95</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -840,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.391066265106201</v>
+        <v>1.404061029222276</v>
       </c>
       <c r="D16">
-        <v>2.223031015396118</v>
+        <v>2.24097806930542</v>
       </c>
       <c r="E16">
-        <v>44.17</v>
+        <v>43.53</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>0.01096262197494507</v>
+        <v>0.01105950543880463</v>
       </c>
       <c r="J16">
-        <v>44.17</v>
+        <v>43.53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -869,13 +869,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.322264553705851</v>
+        <v>1.340886093775431</v>
       </c>
       <c r="D17">
-        <v>2.210377950668335</v>
+        <v>2.398054275512695</v>
       </c>
       <c r="E17">
-        <v>43.83</v>
+        <v>41.45</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -884,10 +884,10 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>0.01078851739168167</v>
+        <v>0.01190176446437836</v>
       </c>
       <c r="J17">
-        <v>43.83</v>
+        <v>41.45</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -898,13 +898,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.257921737300025</v>
+        <v>1.270032702551948</v>
       </c>
       <c r="D18">
-        <v>2.229196577072143</v>
+        <v>2.157909097671509</v>
       </c>
       <c r="E18">
-        <v>44.62</v>
+        <v>44.75</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -913,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="I18">
-        <v>0.01096119775772095</v>
+        <v>0.01075730574131012</v>
       </c>
       <c r="J18">
-        <v>44.62</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -927,13 +927,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.188466138574812</v>
+        <v>1.20776658905877</v>
       </c>
       <c r="D19">
-        <v>2.259741854667664</v>
+        <v>2.251159858703613</v>
       </c>
       <c r="E19">
-        <v>44.6</v>
+        <v>43.69</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -942,10 +942,10 @@
         <v>17</v>
       </c>
       <c r="I19">
-        <v>0.01106924986839294</v>
+        <v>0.01134558824300766</v>
       </c>
       <c r="J19">
-        <v>44.6</v>
+        <v>43.69</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -956,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.127268552515242</v>
+        <v>1.142857782840729</v>
       </c>
       <c r="D20">
-        <v>2.248830394744873</v>
+        <v>2.158136057853699</v>
       </c>
       <c r="E20">
-        <v>44.05</v>
+        <v>45.27</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>18</v>
       </c>
       <c r="I20">
-        <v>0.01119030584096909</v>
+        <v>0.01078887550830841</v>
       </c>
       <c r="J20">
-        <v>44.05</v>
+        <v>45.27</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.058836766878764</v>
+        <v>1.084680543475681</v>
       </c>
       <c r="D21">
-        <v>2.261975746154785</v>
+        <v>2.260073394775391</v>
       </c>
       <c r="E21">
-        <v>44.59</v>
+        <v>44.96</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1000,10 +1000,10 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>0.01104287447929382</v>
+        <v>0.01124981398582458</v>
       </c>
       <c r="J21">
-        <v>44.59</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1014,13 +1014,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.015347111490038</v>
+        <v>1.027467947006226</v>
       </c>
       <c r="D22">
-        <v>2.403860664367676</v>
+        <v>2.27890154838562</v>
       </c>
       <c r="E22">
-        <v>42.82</v>
+        <v>45.2</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1029,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <v>0.01185952985286713</v>
+        <v>0.01121830374002457</v>
       </c>
       <c r="J22">
-        <v>42.82</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1043,13 +1043,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9478126401371426</v>
+        <v>0.9599075852500067</v>
       </c>
       <c r="D23">
-        <v>2.456606893539429</v>
+        <v>2.286448650360108</v>
       </c>
       <c r="E23">
-        <v>42.98</v>
+        <v>45.01</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>21</v>
       </c>
       <c r="I23">
-        <v>0.01186316316127777</v>
+        <v>0.0113713222026825</v>
       </c>
       <c r="J23">
-        <v>42.98</v>
+        <v>45.01</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1072,13 +1072,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.342768198119269</v>
+        <v>0.9149810679753622</v>
       </c>
       <c r="D24">
-        <v>1.889116234779358</v>
+        <v>2.435272083282471</v>
       </c>
       <c r="E24">
-        <v>48.93</v>
+        <v>43.27</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="I24">
-        <v>0.009308725154399872</v>
+        <v>0.01215126974582672</v>
       </c>
       <c r="J24">
-        <v>48.93</v>
+        <v>43.27</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1101,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.275167983373006</v>
+        <v>1.285649984147814</v>
       </c>
       <c r="D25">
-        <v>1.890862288475037</v>
+        <v>1.891143288612366</v>
       </c>
       <c r="E25">
-        <v>49.28</v>
+        <v>49.84</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1116,10 +1116,10 @@
         <v>23</v>
       </c>
       <c r="I25">
-        <v>0.009290251827239989</v>
+        <v>0.009303234875202179</v>
       </c>
       <c r="J25">
-        <v>49.28</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1130,13 +1130,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.239122928513421</v>
+        <v>1.21578242248959</v>
       </c>
       <c r="D26">
-        <v>1.923239860534668</v>
+        <v>1.893956956863403</v>
       </c>
       <c r="E26">
-        <v>48.23</v>
+        <v>49.71</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="I26">
-        <v>0.009470217359066009</v>
+        <v>0.009331593787670135</v>
       </c>
       <c r="J26">
-        <v>48.23</v>
+        <v>49.71</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1159,13 +1159,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.208291656706068</v>
+        <v>1.181277053091261</v>
       </c>
       <c r="D27">
-        <v>1.932675471305847</v>
+        <v>1.928889045715332</v>
       </c>
       <c r="E27">
-        <v>48.69</v>
+        <v>49.37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1174,10 +1174,10 @@
         <v>25</v>
       </c>
       <c r="I27">
-        <v>0.009526742923259736</v>
+        <v>0.009559928464889527</v>
       </c>
       <c r="J27">
-        <v>48.69</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1188,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.17522920899921</v>
+        <v>1.146453928947449</v>
       </c>
       <c r="D28">
-        <v>1.933179526329041</v>
+        <v>1.921051688194275</v>
       </c>
       <c r="E28">
-        <v>48.67</v>
+        <v>49.88</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="I28">
-        <v>0.009488345408439637</v>
+        <v>0.009466085505485534</v>
       </c>
       <c r="J28">
-        <v>48.67</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1217,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.145039087136587</v>
+        <v>1.114017994933658</v>
       </c>
       <c r="D29">
-        <v>1.947451782226562</v>
+        <v>1.947729349136353</v>
       </c>
       <c r="E29">
-        <v>48.51</v>
+        <v>48.84</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="I29">
-        <v>0.009547223627567292</v>
+        <v>0.009659615552425385</v>
       </c>
       <c r="J29">
-        <v>48.51</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1246,13 +1246,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.112913750807444</v>
+        <v>1.084003323978848</v>
       </c>
       <c r="D30">
-        <v>1.960645289421082</v>
+        <v>1.948157415390015</v>
       </c>
       <c r="E30">
-        <v>48.06</v>
+        <v>48.49</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1261,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="I30">
-        <v>0.009703962004184724</v>
+        <v>0.009647399258613586</v>
       </c>
       <c r="J30">
-        <v>48.06</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1275,13 +1275,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.081592171192169</v>
+        <v>1.052608766025967</v>
       </c>
       <c r="D31">
-        <v>2.00035074710846</v>
+        <v>1.968409752845764</v>
       </c>
       <c r="E31">
-        <v>47.54</v>
+        <v>48.49</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1290,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>0.00984062306880951</v>
+        <v>0.009780809521675109</v>
       </c>
       <c r="J31">
-        <v>47.54</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1304,13 +1304,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.048522273699443</v>
+        <v>1.018816778130001</v>
       </c>
       <c r="D32">
-        <v>2.029878296852112</v>
+        <v>2.014774484634399</v>
       </c>
       <c r="E32">
-        <v>47.41</v>
+        <v>47.89</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>0.00996406775712967</v>
+        <v>0.01007638281583786</v>
       </c>
       <c r="J32">
-        <v>47.41</v>
+        <v>47.89</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1333,13 +1333,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.018752923276689</v>
+        <v>0.9894447077645195</v>
       </c>
       <c r="D33">
-        <v>2.020247297286987</v>
+        <v>2.023157477378845</v>
       </c>
       <c r="E33">
-        <v>47.97</v>
+        <v>47.85</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>0.009917238187789917</v>
+        <v>0.009981136345863343</v>
       </c>
       <c r="J33">
-        <v>47.97</v>
+        <v>47.85</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1362,13 +1362,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.989940644370185</v>
+        <v>0.961287411318885</v>
       </c>
       <c r="D34">
-        <v>2.076007041931152</v>
+        <v>2.037711977958679</v>
       </c>
       <c r="E34">
-        <v>46.59</v>
+        <v>48.1</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>0.0102289738535881</v>
+        <v>0.01008584135770798</v>
       </c>
       <c r="J34">
-        <v>46.59</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1391,13 +1391,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.252831724484762</v>
+        <v>0.9322922452290853</v>
       </c>
       <c r="D35">
-        <v>1.865034680366516</v>
+        <v>2.045471529960632</v>
       </c>
       <c r="E35">
-        <v>49.78</v>
+        <v>47.64</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1406,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="I35">
-        <v>0.009160455930233001</v>
+        <v>0.01018047850131988</v>
       </c>
       <c r="J35">
-        <v>49.78</v>
+        <v>47.64</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1420,13 +1420,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.236843640539381</v>
+        <v>1.190942125850254</v>
       </c>
       <c r="D36">
-        <v>1.869009385108948</v>
+        <v>1.872329807281494</v>
       </c>
       <c r="E36">
-        <v>49.61</v>
+        <v>50.23</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1435,10 +1435,10 @@
         <v>34</v>
       </c>
       <c r="I36">
-        <v>0.009173227214813232</v>
+        <v>0.009212062418460846</v>
       </c>
       <c r="J36">
-        <v>49.61</v>
+        <v>50.23</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1449,13 +1449,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.227339176336924</v>
+        <v>1.17599641084671</v>
       </c>
       <c r="D37">
-        <v>1.867527937889099</v>
+        <v>1.868793511390686</v>
       </c>
       <c r="E37">
-        <v>49.69</v>
+        <v>50.25</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1464,10 +1464,10 @@
         <v>35</v>
       </c>
       <c r="I37">
-        <v>0.009170327031612396</v>
+        <v>0.009215424466133118</v>
       </c>
       <c r="J37">
-        <v>49.69</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1478,13 +1478,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.215443082385593</v>
+        <v>1.165994046264225</v>
       </c>
       <c r="D38">
-        <v>1.870139265060425</v>
+        <v>1.872019100189209</v>
       </c>
       <c r="E38">
-        <v>49.43</v>
+        <v>50.28</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <v>0.009194692468643189</v>
+        <v>0.009239421808719636</v>
       </c>
       <c r="J38">
-        <v>49.43</v>
+        <v>50.28</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1507,13 +1507,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.206720697085063</v>
+        <v>1.155718123118083</v>
       </c>
       <c r="D39">
-        <v>1.87228036403656</v>
+        <v>1.872585182189941</v>
       </c>
       <c r="E39">
-        <v>49.57</v>
+        <v>50.14</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>37</v>
       </c>
       <c r="I39">
-        <v>0.009209095919132233</v>
+        <v>0.009247107136249542</v>
       </c>
       <c r="J39">
-        <v>49.57</v>
+        <v>50.14</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1536,13 +1536,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.196317361990611</v>
+        <v>1.144409544997745</v>
       </c>
       <c r="D40">
-        <v>1.874576592445373</v>
+        <v>1.876541032791138</v>
       </c>
       <c r="E40">
-        <v>49.56</v>
+        <v>50.26</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1551,10 +1551,10 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <v>0.009218581569194794</v>
+        <v>0.009265909600257874</v>
       </c>
       <c r="J40">
-        <v>49.56</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1565,13 +1565,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.187725684377882</v>
+        <v>1.135826791127523</v>
       </c>
       <c r="D41">
-        <v>1.878865609169006</v>
+        <v>1.886399784088135</v>
       </c>
       <c r="E41">
-        <v>49.35</v>
+        <v>49.95</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1580,10 +1580,10 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>0.009237750828266144</v>
+        <v>0.009309596896171569</v>
       </c>
       <c r="J41">
-        <v>49.35</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1594,13 +1594,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.178580403327942</v>
+        <v>1.126702690124512</v>
       </c>
       <c r="D42">
-        <v>1.87756534576416</v>
+        <v>1.882279405593872</v>
       </c>
       <c r="E42">
-        <v>49.51</v>
+        <v>50.13</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         <v>40</v>
       </c>
       <c r="I42">
-        <v>0.009251977384090424</v>
+        <v>0.009307910454273224</v>
       </c>
       <c r="J42">
-        <v>49.51</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1623,13 +1623,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.168837287161085</v>
+        <v>1.116842157046</v>
       </c>
       <c r="D43">
-        <v>1.881288986206055</v>
+        <v>1.88403874874115</v>
       </c>
       <c r="E43">
-        <v>49.26</v>
+        <v>50.08</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1638,10 +1638,10 @@
         <v>41</v>
       </c>
       <c r="I43">
-        <v>0.00925684632062912</v>
+        <v>0.009315878856182099</v>
       </c>
       <c r="J43">
-        <v>49.26</v>
+        <v>50.08</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1652,13 +1652,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.161636830965678</v>
+        <v>1.109004303879208</v>
       </c>
       <c r="D44">
-        <v>1.886967153549194</v>
+        <v>1.889896903038025</v>
       </c>
       <c r="E44">
-        <v>49.25</v>
+        <v>50.1</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1667,10 +1667,10 @@
         <v>42</v>
       </c>
       <c r="I44">
-        <v>0.009276336538791657</v>
+        <v>0.009336533951759339</v>
       </c>
       <c r="J44">
-        <v>49.25</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1681,13 +1681,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.15043031639523</v>
+        <v>1.098340189721849</v>
       </c>
       <c r="D45">
-        <v>1.886753263473511</v>
+        <v>1.896425461769104</v>
       </c>
       <c r="E45">
-        <v>49.44</v>
+        <v>49.93</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1696,10 +1696,10 @@
         <v>43</v>
       </c>
       <c r="I45">
-        <v>0.009297433805465698</v>
+        <v>0.009357559216022491</v>
       </c>
       <c r="J45">
-        <v>49.44</v>
+        <v>49.93</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1710,13 +1710,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>1.231239429314931</v>
+        <v>1.091748293770684</v>
       </c>
       <c r="D46">
-        <v>1.865030169487</v>
+        <v>1.898109574317932</v>
       </c>
       <c r="E46">
-        <v>49.62</v>
+        <v>49.73</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1725,10 +1725,10 @@
         <v>44</v>
       </c>
       <c r="I46">
-        <v>0.009167063689231873</v>
+        <v>0.009388019227981567</v>
       </c>
       <c r="J46">
-        <v>49.62</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1739,13 +1739,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.22905448489719</v>
+        <v>1.081795465416378</v>
       </c>
       <c r="D47">
-        <v>1.865155735015869</v>
+        <v>1.89935772895813</v>
       </c>
       <c r="E47">
-        <v>49.56</v>
+        <v>49.85</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1754,10 +1754,10 @@
         <v>45</v>
       </c>
       <c r="I47">
-        <v>0.0091592045545578</v>
+        <v>0.009373201167583466</v>
       </c>
       <c r="J47">
-        <v>49.56</v>
+        <v>49.85</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1768,13 +1768,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>1.226936472521888</v>
+        <v>1.161209927399953</v>
       </c>
       <c r="D48">
-        <v>1.865081939697266</v>
+        <v>1.869302654266357</v>
       </c>
       <c r="E48">
-        <v>49.6</v>
+        <v>50.33</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         <v>46</v>
       </c>
       <c r="I48">
-        <v>0.009159956693649291</v>
+        <v>0.009217637324333191</v>
       </c>
       <c r="J48">
-        <v>49.6</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1797,13 +1797,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>1.22371869802475</v>
+        <v>1.156594801214006</v>
       </c>
       <c r="D49">
-        <v>1.864772815704346</v>
+        <v>1.870701904296875</v>
       </c>
       <c r="E49">
-        <v>49.64</v>
+        <v>50.32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1812,10 +1812,10 @@
         <v>47</v>
       </c>
       <c r="I49">
-        <v>0.009164466500282287</v>
+        <v>0.009225913476943969</v>
       </c>
       <c r="J49">
-        <v>49.64</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1826,13 +1826,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>1.22121310710907</v>
+        <v>1.156178710195753</v>
       </c>
       <c r="D50">
-        <v>1.865790357589722</v>
+        <v>1.870674991607666</v>
       </c>
       <c r="E50">
-        <v>49.65</v>
+        <v>50.37</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1841,10 +1841,10 @@
         <v>48</v>
       </c>
       <c r="I50">
-        <v>0.009169014871120453</v>
+        <v>0.009224826323986053</v>
       </c>
       <c r="J50">
-        <v>49.65</v>
+        <v>50.37</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1855,13 +1855,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>1.218205872641669</v>
+        <v>1.151360553900401</v>
       </c>
       <c r="D51">
-        <v>1.865782556533814</v>
+        <v>1.873775014877319</v>
       </c>
       <c r="E51">
-        <v>49.63</v>
+        <v>50.37</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1870,10 +1870,10 @@
         <v>49</v>
       </c>
       <c r="I51">
-        <v>0.009172385346889496</v>
+        <v>0.009240003883838653</v>
       </c>
       <c r="J51">
-        <v>49.63</v>
+        <v>50.37</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1884,13 +1884,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>1.215429249604543</v>
+        <v>1.149869644376967</v>
       </c>
       <c r="D52">
-        <v>1.866148529052734</v>
+        <v>1.869755048751831</v>
       </c>
       <c r="E52">
-        <v>49.52</v>
+        <v>50.23</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1899,10 +1899,10 @@
         <v>50</v>
       </c>
       <c r="I52">
-        <v>0.009167222940921784</v>
+        <v>0.009226915860176087</v>
       </c>
       <c r="J52">
-        <v>49.52</v>
+        <v>50.23</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1913,13 +1913,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>1.212163277996911</v>
+        <v>1.146170865694682</v>
       </c>
       <c r="D53">
-        <v>1.865178270339966</v>
+        <v>1.871069326400757</v>
       </c>
       <c r="E53">
-        <v>49.64</v>
+        <v>50.3</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1928,10 +1928,10 @@
         <v>51</v>
       </c>
       <c r="I53">
-        <v>0.009170763361454009</v>
+        <v>0.009240925765037537</v>
       </c>
       <c r="J53">
-        <v>49.64</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1942,13 +1942,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>1.209792629082998</v>
+        <v>1.142941228548686</v>
       </c>
       <c r="D54">
-        <v>1.866108727455139</v>
+        <v>1.871110029220581</v>
       </c>
       <c r="E54">
-        <v>49.55</v>
+        <v>50.25</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1957,10 +1957,10 @@
         <v>52</v>
       </c>
       <c r="I54">
-        <v>0.009169341456890107</v>
+        <v>0.00923396645784378</v>
       </c>
       <c r="J54">
-        <v>49.55</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -1971,13 +1971,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1.207531120512221</v>
+        <v>1.141408049000634</v>
       </c>
       <c r="D55">
-        <v>1.868361115455627</v>
+        <v>1.873250336647034</v>
       </c>
       <c r="E55">
-        <v>49.5</v>
+        <v>50.24</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1986,10 +1986,10 @@
         <v>53</v>
       </c>
       <c r="I55">
-        <v>0.00918216860294342</v>
+        <v>0.009245662581920625</v>
       </c>
       <c r="J55">
-        <v>49.5</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2000,13 +2000,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>1.20740850104226</v>
+        <v>1.140143773820665</v>
       </c>
       <c r="D56">
-        <v>1.867224507331848</v>
+        <v>1.871897029876709</v>
       </c>
       <c r="E56">
-        <v>49.5</v>
+        <v>50.47</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2015,10 +2015,10 @@
         <v>54</v>
       </c>
       <c r="I56">
-        <v>0.009172814810276032</v>
+        <v>0.009237466156482696</v>
       </c>
       <c r="J56">
-        <v>49.5</v>
+        <v>50.47</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2029,13 +2029,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>1.203366046746572</v>
+        <v>1.137664889494578</v>
       </c>
       <c r="D57">
-        <v>1.867789826393127</v>
+        <v>1.873425898551941</v>
       </c>
       <c r="E57">
-        <v>49.48</v>
+        <v>50.35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2044,10 +2044,10 @@
         <v>55</v>
       </c>
       <c r="I57">
-        <v>0.009174012124538422</v>
+        <v>0.009241128695011138</v>
       </c>
       <c r="J57">
-        <v>49.48</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2058,13 +2058,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>1.202449452082316</v>
+        <v>1.159568449921078</v>
       </c>
       <c r="D58">
-        <v>1.869135875701904</v>
+        <v>1.87071159362793</v>
       </c>
       <c r="E58">
-        <v>49.57</v>
+        <v>50.28</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>56</v>
       </c>
       <c r="I58">
-        <v>0.009180478572845459</v>
+        <v>0.009220927822589875</v>
       </c>
       <c r="J58">
-        <v>49.57</v>
+        <v>50.28</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2087,13 +2087,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>1.199032269583808</v>
+        <v>1.157275576326582</v>
       </c>
       <c r="D59">
-        <v>1.86918719291687</v>
+        <v>1.8701207447052</v>
       </c>
       <c r="E59">
-        <v>49.72</v>
+        <v>50.35</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2102,10 +2102,10 @@
         <v>57</v>
       </c>
       <c r="I59">
-        <v>0.009181342875957489</v>
+        <v>0.009224657738208771</v>
       </c>
       <c r="J59">
-        <v>49.72</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2116,13 +2116,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>1.219832975069682</v>
+        <v>1.158315185176002</v>
       </c>
       <c r="D60">
-        <v>1.864754066467285</v>
+        <v>1.870167689323425</v>
       </c>
       <c r="E60">
-        <v>49.7</v>
+        <v>50.46</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>58</v>
       </c>
       <c r="I60">
-        <v>0.009165653538703919</v>
+        <v>0.009225076282024383</v>
       </c>
       <c r="J60">
-        <v>49.7</v>
+        <v>50.46</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2145,13 +2145,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>1.218367844687568</v>
+        <v>1.155221251381768</v>
       </c>
       <c r="D61">
-        <v>1.865569834709167</v>
+        <v>1.868190698623657</v>
       </c>
       <c r="E61">
-        <v>49.74</v>
+        <v>50.14</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2160,10 +2160,10 @@
         <v>59</v>
       </c>
       <c r="I61">
-        <v>0.009169724869728089</v>
+        <v>0.009221844327449798</v>
       </c>
       <c r="J61">
-        <v>49.74</v>
+        <v>50.14</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>1.21823293182585</v>
+        <v>1.15650829076767</v>
       </c>
       <c r="D62">
-        <v>1.865861549377441</v>
+        <v>1.869325017929077</v>
       </c>
       <c r="E62">
-        <v>49.62</v>
+        <v>50.48</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2189,10 +2189,10 @@
         <v>60</v>
       </c>
       <c r="I62">
-        <v>0.009164356470108033</v>
+        <v>0.00921791651248932</v>
       </c>
       <c r="J62">
-        <v>49.62</v>
+        <v>50.48</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2203,13 +2203,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>1.21561891608768</v>
+        <v>1.152675935957167</v>
       </c>
       <c r="D63">
-        <v>1.865710668563843</v>
+        <v>1.869868421554565</v>
       </c>
       <c r="E63">
-        <v>49.61</v>
+        <v>50.53</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2218,10 +2218,10 @@
         <v>61</v>
       </c>
       <c r="I63">
-        <v>0.009166719269752502</v>
+        <v>0.009220633745193482</v>
       </c>
       <c r="J63">
-        <v>49.61</v>
+        <v>50.53</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2232,13 +2232,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>1.217543208069271</v>
+        <v>1.155364900165134</v>
       </c>
       <c r="D64">
-        <v>1.864689717292786</v>
+        <v>1.867776670455933</v>
       </c>
       <c r="E64">
-        <v>49.63</v>
+        <v>50.46</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2247,10 +2247,10 @@
         <v>62</v>
       </c>
       <c r="I64">
-        <v>0.009161123728752137</v>
+        <v>0.00921654394865036</v>
       </c>
       <c r="J64">
-        <v>49.63</v>
+        <v>50.46</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2261,13 +2261,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>1.215155936876933</v>
+        <v>1.153200464778476</v>
       </c>
       <c r="D65">
-        <v>1.86374641418457</v>
+        <v>1.869049205780029</v>
       </c>
       <c r="E65">
-        <v>49.72</v>
+        <v>50.48</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2276,10 +2276,10 @@
         <v>63</v>
       </c>
       <c r="I65">
-        <v>0.009162254941463471</v>
+        <v>0.009219337904453277</v>
       </c>
       <c r="J65">
-        <v>49.72</v>
+        <v>50.48</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2290,13 +2290,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>1.217000492943658</v>
+        <v>1.153847537570529</v>
       </c>
       <c r="D66">
-        <v>1.865895147323609</v>
+        <v>1.870445461273193</v>
       </c>
       <c r="E66">
-        <v>49.68</v>
+        <v>50.23</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2305,10 +2305,10 @@
         <v>64</v>
       </c>
       <c r="I66">
-        <v>0.00916272827386856</v>
+        <v>0.009224163341522217</v>
       </c>
       <c r="J66">
-        <v>49.68</v>
+        <v>50.23</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2319,13 +2319,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>1.213306368721856</v>
+        <v>1.151353449291653</v>
       </c>
       <c r="D67">
-        <v>1.8648792552948</v>
+        <v>1.86905969619751</v>
       </c>
       <c r="E67">
-        <v>49.66</v>
+        <v>50.31</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2334,10 +2334,10 @@
         <v>65</v>
       </c>
       <c r="I67">
-        <v>0.009162878596782685</v>
+        <v>0.009218568289279938</v>
       </c>
       <c r="J67">
-        <v>49.66</v>
+        <v>50.31</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2348,13 +2348,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>1.21442883544498</v>
+        <v>1.151584443516201</v>
       </c>
       <c r="D68">
-        <v>1.865556893348694</v>
+        <v>1.869668521881104</v>
       </c>
       <c r="E68">
-        <v>49.7</v>
+        <v>50.31</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2363,10 +2363,10 @@
         <v>66</v>
       </c>
       <c r="I68">
-        <v>0.009169479608535766</v>
+        <v>0.009228214037418365</v>
       </c>
       <c r="J68">
-        <v>49.7</v>
+        <v>50.31</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2377,13 +2377,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>1.214889344904158</v>
+        <v>1.152844846248627</v>
       </c>
       <c r="D69">
-        <v>1.866267261505127</v>
+        <v>1.871366891860962</v>
       </c>
       <c r="E69">
-        <v>49.72</v>
+        <v>50.35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2392,10 +2392,10 @@
         <v>67</v>
       </c>
       <c r="I69">
-        <v>0.009170926249027253</v>
+        <v>0.009233710563182831</v>
       </c>
       <c r="J69">
-        <v>49.72</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2406,13 +2406,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>1.216658022138807</v>
+        <v>1.153477086755964</v>
       </c>
       <c r="D70">
-        <v>1.865786519050598</v>
+        <v>1.870579152107239</v>
       </c>
       <c r="E70">
-        <v>49.58</v>
+        <v>50.25</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2421,10 +2421,10 @@
         <v>68</v>
       </c>
       <c r="I70">
-        <v>0.009165151715278626</v>
+        <v>0.009225703001022338</v>
       </c>
       <c r="J70">
-        <v>49.58</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2435,13 +2435,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>1.212932181358337</v>
+        <v>1.150765745374891</v>
       </c>
       <c r="D71">
-        <v>1.866790771484375</v>
+        <v>1.87048312664032</v>
       </c>
       <c r="E71">
-        <v>49.6</v>
+        <v>50.33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2450,10 +2450,10 @@
         <v>69</v>
       </c>
       <c r="I71">
-        <v>0.009170770382881164</v>
+        <v>0.009225549614429474</v>
       </c>
       <c r="J71">
-        <v>49.6</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2464,13 +2464,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>1.213694873385959</v>
+        <v>1.150727621184455</v>
       </c>
       <c r="D72">
-        <v>1.865055871009827</v>
+        <v>1.868714642524719</v>
       </c>
       <c r="E72">
-        <v>49.56</v>
+        <v>50.29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2479,10 +2479,10 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <v>0.00916750191450119</v>
+        <v>0.00922370389699936</v>
       </c>
       <c r="J72">
-        <v>49.56</v>
+        <v>50.29</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2493,13 +2493,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>1.213326935238308</v>
+        <v>1.149702092541589</v>
       </c>
       <c r="D73">
-        <v>1.865330138206482</v>
+        <v>1.870111036300659</v>
       </c>
       <c r="E73">
-        <v>49.58</v>
+        <v>50.38</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>71</v>
       </c>
       <c r="I73">
-        <v>0.009165421450138092</v>
+        <v>0.009225556147098541</v>
       </c>
       <c r="J73">
-        <v>49.58</v>
+        <v>50.38</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2522,13 +2522,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>1.213193701373206</v>
+        <v>1.149871612919702</v>
       </c>
       <c r="D74">
-        <v>1.865926160812378</v>
+        <v>1.869527740478516</v>
       </c>
       <c r="E74">
-        <v>49.56</v>
+        <v>50.34</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         <v>72</v>
       </c>
       <c r="I74">
-        <v>0.009170978450775146</v>
+        <v>0.009225466918945312</v>
       </c>
       <c r="J74">
-        <v>49.56</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2551,13 +2551,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1.21171968486574</v>
+        <v>1.153341636657715</v>
       </c>
       <c r="D75">
-        <v>1.867045764923096</v>
+        <v>1.870095019340515</v>
       </c>
       <c r="E75">
-        <v>49.46</v>
+        <v>50.33</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2566,10 +2566,10 @@
         <v>73</v>
       </c>
       <c r="I75">
-        <v>0.009168208980560302</v>
+        <v>0.009220209085941315</v>
       </c>
       <c r="J75">
-        <v>49.46</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2580,13 +2580,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>1.215965199735429</v>
+        <v>1.154081512557136</v>
       </c>
       <c r="D76">
-        <v>1.866221051216125</v>
+        <v>1.871107611656189</v>
       </c>
       <c r="E76">
-        <v>49.46</v>
+        <v>50.52</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>74</v>
       </c>
       <c r="I76">
-        <v>0.00916604380607605</v>
+        <v>0.00922816824913025</v>
       </c>
       <c r="J76">
-        <v>49.46</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2609,13 +2609,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>1.213506407207913</v>
+        <v>1.152230230702294</v>
       </c>
       <c r="D77">
-        <v>1.864649567604065</v>
+        <v>1.869820308685303</v>
       </c>
       <c r="E77">
-        <v>49.79</v>
+        <v>50.24</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2624,10 +2624,10 @@
         <v>75</v>
       </c>
       <c r="I77">
-        <v>0.009166138958930968</v>
+        <v>0.00922153319120407</v>
       </c>
       <c r="J77">
-        <v>49.79</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2638,13 +2638,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1.214804195298089</v>
+        <v>1.151323959827423</v>
       </c>
       <c r="D78">
-        <v>1.864952187538147</v>
+        <v>1.869253430366516</v>
       </c>
       <c r="E78">
-        <v>49.8</v>
+        <v>50.35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2653,10 +2653,10 @@
         <v>76</v>
       </c>
       <c r="I78">
-        <v>0.009163484275341034</v>
+        <v>0.00921983152627945</v>
       </c>
       <c r="J78">
-        <v>49.8</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2667,13 +2667,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1.215077160994212</v>
+        <v>1.151615628136529</v>
       </c>
       <c r="D79">
-        <v>1.866698575019836</v>
+        <v>1.870352420806885</v>
       </c>
       <c r="E79">
-        <v>49.68</v>
+        <v>50.32</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2682,10 +2682,10 @@
         <v>77</v>
       </c>
       <c r="I79">
-        <v>0.009163042509555817</v>
+        <v>0.009217106032371521</v>
       </c>
       <c r="J79">
-        <v>49.68</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2696,13 +2696,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1.214470554457771</v>
+        <v>1.154171060985989</v>
       </c>
       <c r="D80">
-        <v>1.865413637161255</v>
+        <v>1.869847297668457</v>
       </c>
       <c r="E80">
-        <v>49.65</v>
+        <v>50.49</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2711,10 +2711,10 @@
         <v>78</v>
       </c>
       <c r="I80">
-        <v>0.009166656935214996</v>
+        <v>0.009226623737812042</v>
       </c>
       <c r="J80">
-        <v>49.65</v>
+        <v>50.49</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2725,13 +2725,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>1.215197789933946</v>
+        <v>1.152553753323025</v>
       </c>
       <c r="D81">
-        <v>1.865566940307617</v>
+        <v>1.869349756240845</v>
       </c>
       <c r="E81">
-        <v>49.59</v>
+        <v>50.53</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2740,10 +2740,10 @@
         <v>79</v>
       </c>
       <c r="I81">
-        <v>0.009163894701004028</v>
+        <v>0.009222799217700958</v>
       </c>
       <c r="J81">
-        <v>49.59</v>
+        <v>50.53</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2754,13 +2754,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>1.213821198145548</v>
+        <v>1.151735964881049</v>
       </c>
       <c r="D82">
-        <v>1.866973528862</v>
+        <v>1.871790809631348</v>
       </c>
       <c r="E82">
-        <v>49.64</v>
+        <v>50.31</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2769,10 +2769,10 @@
         <v>80</v>
       </c>
       <c r="I82">
-        <v>0.00917052001953125</v>
+        <v>0.009231763446331025</v>
       </c>
       <c r="J82">
-        <v>49.64</v>
+        <v>50.31</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2783,13 +2783,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>1.216366713576847</v>
+        <v>1.153750182787577</v>
       </c>
       <c r="D83">
-        <v>1.86500036239624</v>
+        <v>1.868910436630249</v>
       </c>
       <c r="E83">
-        <v>49.67</v>
+        <v>50.25</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2798,10 +2798,10 @@
         <v>81</v>
       </c>
       <c r="I83">
-        <v>0.009164803075790406</v>
+        <v>0.009219153869152069</v>
       </c>
       <c r="J83">
-        <v>49.67</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2812,13 +2812,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>1.214802090326945</v>
+        <v>1.152182184060415</v>
       </c>
       <c r="D84">
-        <v>1.865695333480835</v>
+        <v>1.869162354469299</v>
       </c>
       <c r="E84">
-        <v>49.66</v>
+        <v>50.27</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2827,10 +2827,10 @@
         <v>82</v>
       </c>
       <c r="I84">
-        <v>0.009172244715690612</v>
+        <v>0.009223758625984192</v>
       </c>
       <c r="J84">
-        <v>49.66</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2841,13 +2841,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>1.215273550351461</v>
+        <v>1.153675595389472</v>
       </c>
       <c r="D85">
-        <v>1.866723031997681</v>
+        <v>1.872098498344421</v>
       </c>
       <c r="E85">
-        <v>49.73</v>
+        <v>50.35</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2856,10 +2856,10 @@
         <v>83</v>
       </c>
       <c r="I85">
-        <v>0.00917593960762024</v>
+        <v>0.009233029031753539</v>
       </c>
       <c r="J85">
-        <v>49.73</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2870,13 +2870,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>1.214678654670715</v>
+        <v>1.152517524295383</v>
       </c>
       <c r="D86">
-        <v>1.86494930267334</v>
+        <v>1.870443115234375</v>
       </c>
       <c r="E86">
-        <v>49.63</v>
+        <v>50.28</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2885,10 +2885,10 @@
         <v>84</v>
       </c>
       <c r="I86">
-        <v>0.009166324269771577</v>
+        <v>0.009221906054019928</v>
       </c>
       <c r="J86">
-        <v>49.63</v>
+        <v>50.28</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2899,13 +2899,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>1.215028456052144</v>
+        <v>1.154305003749</v>
       </c>
       <c r="D87">
-        <v>1.865279340744018</v>
+        <v>1.870218296051025</v>
       </c>
       <c r="E87">
-        <v>49.72</v>
+        <v>50.42</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2914,10 +2914,10 @@
         <v>85</v>
       </c>
       <c r="I87">
-        <v>0.009176528656482696</v>
+        <v>0.009231120538711548</v>
       </c>
       <c r="J87">
-        <v>49.72</v>
+        <v>50.42</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2928,13 +2928,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>1.215962852901883</v>
+        <v>1.155873203542497</v>
       </c>
       <c r="D88">
-        <v>1.864713368415833</v>
+        <v>1.869524540901184</v>
       </c>
       <c r="E88">
-        <v>49.58</v>
+        <v>50.33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         <v>86</v>
       </c>
       <c r="I88">
-        <v>0.009165159046649933</v>
+        <v>0.009224726796150207</v>
       </c>
       <c r="J88">
-        <v>49.58</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2957,13 +2957,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>1.216107716825273</v>
+        <v>1.154145916832818</v>
       </c>
       <c r="D89">
-        <v>1.866331243515015</v>
+        <v>1.869785041809082</v>
       </c>
       <c r="E89">
-        <v>49.64</v>
+        <v>50.52</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2972,10 +2972,10 @@
         <v>87</v>
       </c>
       <c r="I89">
-        <v>0.009160205376148223</v>
+        <v>0.009216850924491883</v>
       </c>
       <c r="J89">
-        <v>49.64</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2986,13 +2986,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>1.215475579897563</v>
+        <v>1.153122606807285</v>
       </c>
       <c r="D90">
-        <v>1.865477585792541</v>
+        <v>1.869440689086914</v>
       </c>
       <c r="E90">
-        <v>49.63</v>
+        <v>50.31</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         <v>88</v>
       </c>
       <c r="I90">
-        <v>0.009165754115581513</v>
+        <v>0.009219185900688171</v>
       </c>
       <c r="J90">
-        <v>49.63</v>
+        <v>50.31</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3015,13 +3015,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>1.215981629954444</v>
+        <v>1.153261215951708</v>
       </c>
       <c r="D91">
-        <v>1.865948190689087</v>
+        <v>1.870865974426269</v>
       </c>
       <c r="E91">
-        <v>49.6</v>
+        <v>50.48</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3030,10 +3030,10 @@
         <v>89</v>
       </c>
       <c r="I91">
-        <v>0.009168917083740234</v>
+        <v>0.009230226552486419</v>
       </c>
       <c r="J91">
-        <v>49.6</v>
+        <v>50.48</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3044,13 +3044,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>1.217164075904422</v>
+        <v>1.154882652759552</v>
       </c>
       <c r="D92">
-        <v>1.864049534797668</v>
+        <v>1.868043990135193</v>
       </c>
       <c r="E92">
-        <v>49.76</v>
+        <v>50.3</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3059,10 +3059,10 @@
         <v>90</v>
       </c>
       <c r="I92">
-        <v>0.009162224698066712</v>
+        <v>0.009217532646656037</v>
       </c>
       <c r="J92">
-        <v>49.76</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3073,13 +3073,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>1.216547286510468</v>
+        <v>1.154535901811388</v>
       </c>
       <c r="D93">
-        <v>1.866557106971741</v>
+        <v>1.87026629447937</v>
       </c>
       <c r="E93">
-        <v>49.58</v>
+        <v>50.4</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3088,10 +3088,10 @@
         <v>91</v>
       </c>
       <c r="I93">
-        <v>0.009164574944972992</v>
+        <v>0.009221780693531037</v>
       </c>
       <c r="J93">
-        <v>49.58</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3102,13 +3102,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>1.215916349358029</v>
+        <v>1.153949760331048</v>
       </c>
       <c r="D94">
-        <v>1.866829085350037</v>
+        <v>1.870745310783386</v>
       </c>
       <c r="E94">
-        <v>49.7</v>
+        <v>50.44</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3117,10 +3117,10 @@
         <v>92</v>
       </c>
       <c r="I94">
-        <v>0.009173734033107757</v>
+        <v>0.009227363181114197</v>
       </c>
       <c r="J94">
-        <v>49.7</v>
+        <v>50.44</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3131,13 +3131,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>1.214830789036221</v>
+        <v>1.152946973906623</v>
       </c>
       <c r="D95">
-        <v>1.864953923225403</v>
+        <v>1.86881778717041</v>
       </c>
       <c r="E95">
-        <v>49.6</v>
+        <v>50.5</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3146,10 +3146,10 @@
         <v>93</v>
       </c>
       <c r="I95">
-        <v>0.009165248060226441</v>
+        <v>0.00922003893852234</v>
       </c>
       <c r="J95">
-        <v>49.6</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3160,13 +3160,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>1.215116961532169</v>
+        <v>1.152561265627543</v>
       </c>
       <c r="D96">
-        <v>1.866890087127685</v>
+        <v>1.870674476623535</v>
       </c>
       <c r="E96">
-        <v>49.59</v>
+        <v>50.4</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3175,10 +3175,10 @@
         <v>94</v>
       </c>
       <c r="I96">
-        <v>0.009168689596652985</v>
+        <v>0.009220616936683655</v>
       </c>
       <c r="J96">
-        <v>49.59</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3189,13 +3189,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>1.21517075697581</v>
+        <v>1.153098496860928</v>
       </c>
       <c r="D97">
-        <v>1.866591873168945</v>
+        <v>1.870554194450379</v>
       </c>
       <c r="E97">
-        <v>49.63</v>
+        <v>50.32</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3204,10 +3204,10 @@
         <v>95</v>
       </c>
       <c r="I97">
-        <v>0.009167415678501128</v>
+        <v>0.009223936069011689</v>
       </c>
       <c r="J97">
-        <v>49.63</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3218,13 +3218,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>1.216362359258864</v>
+        <v>1.154131570392185</v>
       </c>
       <c r="D98">
-        <v>1.864107241630554</v>
+        <v>1.868877201080322</v>
       </c>
       <c r="E98">
-        <v>49.6</v>
+        <v>50.24</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3233,10 +3233,10 @@
         <v>96</v>
       </c>
       <c r="I98">
-        <v>0.009166153061389922</v>
+        <v>0.009218189918994904</v>
       </c>
       <c r="J98">
-        <v>49.6</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3247,13 +3247,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>1.216003971894582</v>
+        <v>1.154291755623288</v>
       </c>
       <c r="D99">
-        <v>1.863470044136047</v>
+        <v>1.868323493003845</v>
       </c>
       <c r="E99">
-        <v>49.66</v>
+        <v>50.35</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3262,10 +3262,10 @@
         <v>97</v>
       </c>
       <c r="I99">
-        <v>0.00915899178981781</v>
+        <v>0.009217604744434357</v>
       </c>
       <c r="J99">
-        <v>49.66</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3276,13 +3276,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>1.216100841628181</v>
+        <v>1.153919561174181</v>
       </c>
       <c r="D100">
-        <v>1.865890555381775</v>
+        <v>1.870197157859802</v>
       </c>
       <c r="E100">
-        <v>49.6</v>
+        <v>50.27</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3291,10 +3291,10 @@
         <v>98</v>
       </c>
       <c r="I100">
-        <v>0.009171064841747284</v>
+        <v>0.009224438965320587</v>
       </c>
       <c r="J100">
-        <v>49.6</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3305,13 +3305,13 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>1.213572559886509</v>
+        <v>1.151949537595113</v>
       </c>
       <c r="D101">
-        <v>1.864649052619934</v>
+        <v>1.86878312587738</v>
       </c>
       <c r="E101">
-        <v>49.64</v>
+        <v>50.44</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3320,10 +3320,10 @@
         <v>99</v>
       </c>
       <c r="I101">
-        <v>0.00916378482580185</v>
+        <v>0.009219301414489746</v>
       </c>
       <c r="J101">
-        <v>49.64</v>
+        <v>50.44</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3334,13 +3334,13 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>1.215510915915171</v>
+        <v>1.153119504981571</v>
       </c>
       <c r="D102">
-        <v>1.865995283126831</v>
+        <v>1.869105906486511</v>
       </c>
       <c r="E102">
-        <v>49.64</v>
+        <v>50.33</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3349,10 +3349,10 @@
         <v>100</v>
       </c>
       <c r="I102">
-        <v>0.009164836990833283</v>
+        <v>0.009218016839027406</v>
       </c>
       <c r="J102">
-        <v>49.64</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3363,13 +3363,13 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>1.215094672838847</v>
+        <v>1.152878170808156</v>
       </c>
       <c r="D103">
-        <v>1.866390643119812</v>
+        <v>1.870887660980225</v>
       </c>
       <c r="E103">
-        <v>49.56</v>
+        <v>50.3</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3378,10 +3378,10 @@
         <v>101</v>
       </c>
       <c r="I103">
-        <v>0.009169954943656921</v>
+        <v>0.009226676893234254</v>
       </c>
       <c r="J103">
-        <v>49.56</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3392,13 +3392,13 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>1.21653468185001</v>
+        <v>1.154645942846934</v>
       </c>
       <c r="D104">
-        <v>1.865444951057434</v>
+        <v>1.870424070358276</v>
       </c>
       <c r="E104">
-        <v>49.59</v>
+        <v>50.28</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3407,155 +3407,10 @@
         <v>102</v>
       </c>
       <c r="I104">
-        <v>0.009167835628986359</v>
+        <v>0.009226871180534363</v>
       </c>
       <c r="J104">
-        <v>49.59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>1.216055100229051</v>
-      </c>
-      <c r="D105">
-        <v>1.865559148788452</v>
-      </c>
-      <c r="E105">
-        <v>49.54</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>103</v>
-      </c>
-      <c r="I105">
-        <v>0.009163344240188599</v>
-      </c>
-      <c r="J105">
-        <v>49.54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
-        <v>1.214271369245317</v>
-      </c>
-      <c r="D106">
-        <v>1.864763746261597</v>
-      </c>
-      <c r="E106">
-        <v>49.65</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>104</v>
-      </c>
-      <c r="I106">
-        <v>0.009168139863014221</v>
-      </c>
-      <c r="J106">
-        <v>49.65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
-        <v>1.216171019342211</v>
-      </c>
-      <c r="D107">
-        <v>1.866897282600403</v>
-      </c>
-      <c r="E107">
-        <v>49.47</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>105</v>
-      </c>
-      <c r="I107">
-        <v>0.009171915531158448</v>
-      </c>
-      <c r="J107">
-        <v>49.47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
-        <v>1.2171475537618</v>
-      </c>
-      <c r="D108">
-        <v>1.865531463623047</v>
-      </c>
-      <c r="E108">
-        <v>49.69</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>106</v>
-      </c>
-      <c r="I108">
-        <v>0.009162560200691222</v>
-      </c>
-      <c r="J108">
-        <v>49.69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
-        <v>1.216237742371029</v>
-      </c>
-      <c r="D109">
-        <v>1.865124921798706</v>
-      </c>
-      <c r="E109">
-        <v>49.65</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>107</v>
-      </c>
-      <c r="I109">
-        <v>0.0091665287733078</v>
-      </c>
-      <c r="J109">
-        <v>49.65</v>
+        <v>50.28</v>
       </c>
     </row>
   </sheetData>
